--- a/data/trans_media/IQ17B_A-Habitat-trans_media.xlsx
+++ b/data/trans_media/IQ17B_A-Habitat-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,32 +724,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,69</t>
+          <t>0,1; 0,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,23; 0,83</t>
+          <t>0,24; 0,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,11; 0,63</t>
+          <t>0,1; 0,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,68</t>
+          <t>0,0; 0,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,15; 2,04</t>
+          <t>0,15; 2,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,42</t>
+          <t>0,05; 0,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,34 +759,34 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,46; 3,83</t>
+          <t>0,47; 3,44</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,22; 1,12</t>
+          <t>0,2; 1,1</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,2; 0,56</t>
+          <t>0,2; 0,57</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,13; 0,47</t>
+          <t>0,13; 0,46</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,42</t>
+          <t>0,32; 2,45</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,27 +864,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,13; 0,33</t>
+          <t>0,14; 0,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,17; 0,42</t>
+          <t>0,17; 0,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,12; 0,28</t>
+          <t>0,12; 0,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,32; 0,94</t>
+          <t>0,33; 0,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,26</t>
+          <t>0,08; 0,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -894,39 +894,39 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,2; 0,52</t>
+          <t>0,2; 0,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,36; 0,62</t>
+          <t>0,35; 0,62</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,12; 0,26</t>
+          <t>0,12; 0,27</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,16; 0,32</t>
+          <t>0,16; 0,3</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,19; 0,37</t>
+          <t>0,18; 0,36</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,38; 0,69</t>
+          <t>0,38; 0,71</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,19; 0,46</t>
+          <t>0,19; 0,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,12 +1019,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,44; 0,68</t>
+          <t>0,44; 0,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,17; 0,43</t>
+          <t>0,18; 0,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1034,17 +1034,17 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,17; 0,32</t>
+          <t>0,17; 0,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,31; 0,51</t>
+          <t>0,31; 0,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,18; 0,34</t>
+          <t>0,19; 0,33</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,41; 0,56</t>
+          <t>0,41; 0,57</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,27 +1144,27 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,19; 0,44</t>
+          <t>0,18; 0,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,29</t>
+          <t>0,1; 0,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,27; 0,52</t>
+          <t>0,27; 0,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,35; 1,08</t>
+          <t>0,34; 1,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,17; 0,34</t>
+          <t>0,17; 0,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1174,17 +1174,17 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,25; 0,48</t>
+          <t>0,26; 0,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,17; 0,45</t>
+          <t>0,17; 0,44</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,2; 0,35</t>
+          <t>0,21; 0,35</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,3; 0,69</t>
+          <t>0,29; 0,7</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,2; 0,37</t>
+          <t>0,19; 0,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1294,17 +1294,17 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,2; 0,36</t>
+          <t>0,21; 0,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,35; 0,63</t>
+          <t>0,36; 0,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,26; 0,45</t>
+          <t>0,25; 0,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1314,22 +1314,22 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,14; 0,26</t>
+          <t>0,14; 0,25</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,29; 0,51</t>
+          <t>0,29; 0,5</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,24; 0,38</t>
+          <t>0,25; 0,39</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,19; 0,32</t>
+          <t>0,19; 0,31</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1429,27 +1429,27 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,2; 0,3</t>
+          <t>0,21; 0,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,25; 0,35</t>
+          <t>0,25; 0,34</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,44; 0,66</t>
+          <t>0,44; 0,64</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,22; 0,34</t>
+          <t>0,23; 0,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,14; 0,23</t>
+          <t>0,15; 0,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,23; 0,3</t>
+          <t>0,23; 0,31</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,19; 0,25</t>
+          <t>0,18; 0,25</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,41; 0,53</t>
+          <t>0,41; 0,54</t>
         </is>
       </c>
     </row>
